--- a/db/comman & Uncomman Sheet abhirajs.xlsx
+++ b/db/comman & Uncomman Sheet abhirajs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abhiraj\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\inventory\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF4E3FA7-D398-46AD-A67E-9A3829E452E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92AFBB2F-84FF-4B49-B796-75EA03A959E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1950" yWindow="1950" windowWidth="13230" windowHeight="11295" tabRatio="619" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="619" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="common" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">common!$A$2:$AE$112</definedName>
   </definedNames>
   <calcPr calcId="181029" calcMode="manual"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1846" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2075" uniqueCount="213">
   <si>
     <t>BATTERY</t>
   </si>
@@ -593,6 +592,90 @@
   </si>
   <si>
     <t>Tested by</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            =       </t>
+  </si>
+  <si>
+    <t>$_POST['</t>
+  </si>
+  <si>
+    <t>product                         $_POST['product</t>
+  </si>
+  <si>
+    <t>'];</t>
+  </si>
+  <si>
+    <t>alt_part</t>
+  </si>
+  <si>
+    <t>alt_serial</t>
+  </si>
+  <si>
+    <t>'$</t>
+  </si>
+  <si>
+    <t>',</t>
+  </si>
+  <si>
+    <t>'$test_by',</t>
+  </si>
+  <si>
+    <t>'$mach_type',</t>
+  </si>
+  <si>
+    <t>'$mach_no',</t>
+  </si>
+  <si>
+    <t>'$service_tag',</t>
+  </si>
+  <si>
+    <t>'$model',</t>
+  </si>
+  <si>
+    <t>'$spar_type',</t>
+  </si>
+  <si>
+    <t>'$part_no',</t>
+  </si>
+  <si>
+    <t>'$alt_part',</t>
+  </si>
+  <si>
+    <t>'$seri_no',</t>
+  </si>
+  <si>
+    <t>'$alt_serial',</t>
+  </si>
+  <si>
+    <t>'$specs',</t>
+  </si>
+  <si>
+    <t>'$barc_no',</t>
+  </si>
+  <si>
+    <t>'$qty',</t>
+  </si>
+  <si>
+    <t>'$work_not',</t>
+  </si>
+  <si>
+    <t>'$location',</t>
+  </si>
+  <si>
+    <t>'$refe_location',</t>
+  </si>
+  <si>
+    <t>'$pare_child',</t>
+  </si>
+  <si>
+    <t>'$remark',</t>
+  </si>
+  <si>
+    <t>$test_date',</t>
   </si>
 </sst>
 </file>
@@ -799,7 +882,17 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="286">
+  <dxfs count="287">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -7193,466 +7286,466 @@
   </sheetData>
   <autoFilter ref="A2:AE112" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="H2 M2:N2 P2">
-    <cfRule type="duplicateValues" dxfId="285" priority="164"/>
+    <cfRule type="duplicateValues" dxfId="286" priority="164"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2 M2:N2 P2">
-    <cfRule type="duplicateValues" dxfId="284" priority="162"/>
-    <cfRule type="duplicateValues" dxfId="283" priority="163"/>
+    <cfRule type="duplicateValues" dxfId="285" priority="162"/>
+    <cfRule type="duplicateValues" dxfId="284" priority="163"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2 M2:N2 H2">
-    <cfRule type="duplicateValues" dxfId="282" priority="161"/>
+    <cfRule type="duplicateValues" dxfId="283" priority="161"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2">
-    <cfRule type="duplicateValues" dxfId="281" priority="160"/>
+    <cfRule type="duplicateValues" dxfId="282" priority="160"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3 M3:N3 P3">
-    <cfRule type="duplicateValues" dxfId="280" priority="159"/>
+    <cfRule type="duplicateValues" dxfId="281" priority="159"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3 M3:N3 P3">
-    <cfRule type="duplicateValues" dxfId="279" priority="157"/>
-    <cfRule type="duplicateValues" dxfId="278" priority="158"/>
+    <cfRule type="duplicateValues" dxfId="280" priority="157"/>
+    <cfRule type="duplicateValues" dxfId="279" priority="158"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3 M3:N3 H3">
-    <cfRule type="duplicateValues" dxfId="277" priority="156"/>
+    <cfRule type="duplicateValues" dxfId="278" priority="156"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3">
-    <cfRule type="duplicateValues" dxfId="276" priority="155"/>
+    <cfRule type="duplicateValues" dxfId="277" priority="155"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4 M4:N4 H4">
-    <cfRule type="duplicateValues" dxfId="275" priority="154"/>
+    <cfRule type="duplicateValues" dxfId="276" priority="154"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5:N5 P5 H5">
-    <cfRule type="duplicateValues" dxfId="274" priority="153"/>
+    <cfRule type="duplicateValues" dxfId="275" priority="153"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5 M5:N5 H5">
-    <cfRule type="duplicateValues" dxfId="273" priority="152"/>
+    <cfRule type="duplicateValues" dxfId="274" priority="152"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5">
-    <cfRule type="duplicateValues" dxfId="272" priority="151"/>
+    <cfRule type="duplicateValues" dxfId="273" priority="151"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5">
-    <cfRule type="duplicateValues" dxfId="271" priority="150"/>
+    <cfRule type="duplicateValues" dxfId="272" priority="150"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5:N5">
-    <cfRule type="duplicateValues" dxfId="270" priority="149"/>
+    <cfRule type="duplicateValues" dxfId="271" priority="149"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:V6 AB6">
-    <cfRule type="duplicateValues" dxfId="269" priority="148"/>
+    <cfRule type="duplicateValues" dxfId="270" priority="148"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:V7 AB7:AC7">
-    <cfRule type="duplicateValues" dxfId="268" priority="147"/>
+    <cfRule type="duplicateValues" dxfId="269" priority="147"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB7 T7:V7">
-    <cfRule type="duplicateValues" dxfId="267" priority="146"/>
+    <cfRule type="duplicateValues" dxfId="268" priority="146"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T8:V8 AB8">
-    <cfRule type="duplicateValues" dxfId="266" priority="145"/>
+    <cfRule type="duplicateValues" dxfId="267" priority="145"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB9:AC9 T9:V9">
-    <cfRule type="duplicateValues" dxfId="265" priority="144"/>
+    <cfRule type="duplicateValues" dxfId="266" priority="144"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T9:V9 AB9:AC9">
-    <cfRule type="duplicateValues" dxfId="264" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="265" priority="143"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T9:V9">
-    <cfRule type="duplicateValues" dxfId="263" priority="142"/>
+    <cfRule type="duplicateValues" dxfId="264" priority="142"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T9:V9 AB9">
-    <cfRule type="duplicateValues" dxfId="262" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="263" priority="141"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R10 O10">
-    <cfRule type="duplicateValues" dxfId="261" priority="140"/>
+    <cfRule type="duplicateValues" dxfId="262" priority="140"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O13 R13">
-    <cfRule type="duplicateValues" dxfId="260" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="261" priority="138"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R13 O13">
-    <cfRule type="duplicateValues" dxfId="259" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="260" priority="137"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R13">
-    <cfRule type="duplicateValues" dxfId="258" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="259" priority="139"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R13">
-    <cfRule type="duplicateValues" dxfId="257" priority="136"/>
+    <cfRule type="duplicateValues" dxfId="258" priority="136"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R13">
-    <cfRule type="duplicateValues" dxfId="256" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="257" priority="135"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R11 O11">
-    <cfRule type="duplicateValues" dxfId="255" priority="128"/>
+    <cfRule type="duplicateValues" dxfId="256" priority="128"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R11 O11">
-    <cfRule type="duplicateValues" dxfId="254" priority="129"/>
-    <cfRule type="duplicateValues" dxfId="253" priority="130"/>
+    <cfRule type="duplicateValues" dxfId="255" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="254" priority="130"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R11">
-    <cfRule type="duplicateValues" dxfId="252" priority="131"/>
+    <cfRule type="duplicateValues" dxfId="253" priority="131"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O11 R11">
-    <cfRule type="duplicateValues" dxfId="251" priority="132"/>
+    <cfRule type="duplicateValues" dxfId="252" priority="132"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R11">
-    <cfRule type="duplicateValues" dxfId="250" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="251" priority="133"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O11">
-    <cfRule type="duplicateValues" dxfId="249" priority="134"/>
+    <cfRule type="duplicateValues" dxfId="250" priority="134"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O11">
-    <cfRule type="duplicateValues" dxfId="248" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="249" priority="127"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O12 R12">
-    <cfRule type="duplicateValues" dxfId="247" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="248" priority="126"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O12">
-    <cfRule type="duplicateValues" dxfId="246" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="247" priority="125"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R12 O12">
-    <cfRule type="duplicateValues" dxfId="245" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="246" priority="124"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P15">
-    <cfRule type="duplicateValues" dxfId="244" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="245" priority="121"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P15 M15:N15 H15">
-    <cfRule type="duplicateValues" dxfId="243" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="244" priority="120"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15:N15 P15 H15">
-    <cfRule type="duplicateValues" dxfId="242" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="243" priority="119"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15:N15">
-    <cfRule type="duplicateValues" dxfId="241" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="242" priority="118"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P15">
-    <cfRule type="duplicateValues" dxfId="240" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="241" priority="117"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15:N15">
-    <cfRule type="duplicateValues" dxfId="239" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="240" priority="116"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15:N15 P15">
-    <cfRule type="duplicateValues" dxfId="238" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="239" priority="115"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P15">
-    <cfRule type="duplicateValues" dxfId="237" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="238" priority="122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="duplicateValues" dxfId="236" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="237" priority="123"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P15">
-    <cfRule type="duplicateValues" dxfId="235" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="236" priority="114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17 P17 M17:N17">
-    <cfRule type="duplicateValues" dxfId="234" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="235" priority="113"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17">
-    <cfRule type="duplicateValues" dxfId="233" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="234" priority="112"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16 P16 M16:N16">
-    <cfRule type="duplicateValues" dxfId="232" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="233" priority="111"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M18 I18:J18">
-    <cfRule type="duplicateValues" dxfId="231" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="232" priority="110"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M18 I18:J18">
-    <cfRule type="duplicateValues" dxfId="230" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="231" priority="109"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N20 L20">
-    <cfRule type="duplicateValues" dxfId="229" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="230" priority="104"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N20">
-    <cfRule type="duplicateValues" dxfId="228" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="229" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20 N20">
-    <cfRule type="duplicateValues" dxfId="227" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="228" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20 N20">
-    <cfRule type="duplicateValues" dxfId="226" priority="100"/>
-    <cfRule type="duplicateValues" dxfId="225" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="227" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="226" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20">
-    <cfRule type="duplicateValues" dxfId="224" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="225" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21">
-    <cfRule type="duplicateValues" dxfId="223" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="224" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O21">
-    <cfRule type="duplicateValues" dxfId="222" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="223" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O21">
-    <cfRule type="duplicateValues" dxfId="221" priority="93"/>
-    <cfRule type="duplicateValues" dxfId="220" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="222" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="221" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21">
-    <cfRule type="duplicateValues" dxfId="219" priority="94"/>
-    <cfRule type="duplicateValues" dxfId="218" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="220" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="219" priority="95"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P21">
-    <cfRule type="duplicateValues" dxfId="217" priority="91"/>
-    <cfRule type="duplicateValues" dxfId="216" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="218" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="217" priority="92"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O21 K21">
-    <cfRule type="duplicateValues" dxfId="215" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="216" priority="90"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O21 K21">
-    <cfRule type="duplicateValues" dxfId="214" priority="88"/>
-    <cfRule type="duplicateValues" dxfId="213" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="215" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="214" priority="89"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21 O21">
-    <cfRule type="duplicateValues" dxfId="212" priority="86"/>
-    <cfRule type="duplicateValues" dxfId="211" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="213" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="212" priority="87"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="timePeriod" dxfId="210" priority="85" timePeriod="yesterday">
+    <cfRule type="timePeriod" dxfId="211" priority="85" timePeriod="yesterday">
       <formula>FLOOR(G22,1)=TODAY()-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24:J24 M24">
-    <cfRule type="duplicateValues" dxfId="209" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="210" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24 M24">
-    <cfRule type="duplicateValues" dxfId="208" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="209" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25:J25 M25">
-    <cfRule type="duplicateValues" dxfId="207" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="208" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25 M25">
-    <cfRule type="duplicateValues" dxfId="206" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="207" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M26">
-    <cfRule type="duplicateValues" dxfId="205" priority="78"/>
-    <cfRule type="duplicateValues" dxfId="204" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="206" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="205" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M26">
-    <cfRule type="duplicateValues" dxfId="203" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="204" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M28 I28:J28">
-    <cfRule type="duplicateValues" dxfId="202" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="203" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28">
-    <cfRule type="duplicateValues" dxfId="201" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="202" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M28 I28">
-    <cfRule type="duplicateValues" dxfId="200" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="201" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M28">
-    <cfRule type="duplicateValues" dxfId="199" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="200" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28 M28">
-    <cfRule type="duplicateValues" dxfId="198" priority="72"/>
-    <cfRule type="duplicateValues" dxfId="197" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="199" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="198" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28 M28">
-    <cfRule type="duplicateValues" dxfId="196" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="197" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M29 I29:J29">
-    <cfRule type="duplicateValues" dxfId="195" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="196" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M29">
-    <cfRule type="duplicateValues" dxfId="194" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="195" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29">
-    <cfRule type="duplicateValues" dxfId="193" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="194" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M29 I29">
-    <cfRule type="duplicateValues" dxfId="192" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="193" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29:J29 M29">
-    <cfRule type="duplicateValues" dxfId="191" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="192" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30:J30 M30">
-    <cfRule type="duplicateValues" dxfId="190" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="191" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30:J30">
-    <cfRule type="duplicateValues" dxfId="189" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="190" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31:J31 M31">
-    <cfRule type="duplicateValues" dxfId="188" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="189" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32:J32 M32">
-    <cfRule type="duplicateValues" dxfId="187" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="188" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32 M32">
-    <cfRule type="duplicateValues" dxfId="186" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="187" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M32">
-    <cfRule type="duplicateValues" dxfId="185" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="186" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32">
-    <cfRule type="duplicateValues" dxfId="184" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="185" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M32 I32">
-    <cfRule type="duplicateValues" dxfId="183" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="184" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33:J33 M33">
-    <cfRule type="duplicateValues" dxfId="182" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="183" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33:J33">
-    <cfRule type="duplicateValues" dxfId="181" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="182" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33 M33">
-    <cfRule type="duplicateValues" dxfId="180" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="181" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M33 I33">
-    <cfRule type="duplicateValues" dxfId="179" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="180" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34:J34 M34">
-    <cfRule type="duplicateValues" dxfId="178" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="179" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M34 I34:J34">
-    <cfRule type="duplicateValues" dxfId="177" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="178" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M34 I34">
-    <cfRule type="duplicateValues" dxfId="176" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="177" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34 M34">
-    <cfRule type="duplicateValues" dxfId="175" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="176" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34:J34">
-    <cfRule type="duplicateValues" dxfId="174" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="175" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M36 I36:J36">
-    <cfRule type="duplicateValues" dxfId="173" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="174" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M36">
-    <cfRule type="duplicateValues" dxfId="172" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="173" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:J36">
-    <cfRule type="duplicateValues" dxfId="171" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="172" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M36 I36">
-    <cfRule type="duplicateValues" dxfId="170" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="171" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36 M36">
-    <cfRule type="duplicateValues" dxfId="169" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="170" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36">
-    <cfRule type="duplicateValues" dxfId="168" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="169" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37:I37">
-    <cfRule type="duplicateValues" dxfId="167" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="168" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37">
-    <cfRule type="duplicateValues" dxfId="166" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="167" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38:J38">
-    <cfRule type="duplicateValues" dxfId="165" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="166" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M38 I38:J38">
-    <cfRule type="duplicateValues" dxfId="164" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="165" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38">
-    <cfRule type="duplicateValues" dxfId="163" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="164" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M38">
-    <cfRule type="duplicateValues" dxfId="162" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="163" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L39 J39">
-    <cfRule type="duplicateValues" dxfId="161" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="162" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J39">
-    <cfRule type="duplicateValues" dxfId="160" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="161" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L39">
-    <cfRule type="duplicateValues" dxfId="159" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="160" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J39 L39">
-    <cfRule type="duplicateValues" dxfId="158" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="159" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M40 I40:J40">
-    <cfRule type="duplicateValues" dxfId="157" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="158" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:L41">
-    <cfRule type="duplicateValues" dxfId="156" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N41">
-    <cfRule type="duplicateValues" dxfId="155" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:L41 N41">
-    <cfRule type="duplicateValues" dxfId="154" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M42:N42 P42">
-    <cfRule type="duplicateValues" dxfId="153" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P42 M42:N42">
-    <cfRule type="duplicateValues" dxfId="152" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M23 I23">
-    <cfRule type="duplicateValues" dxfId="151" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M23 I23:J23">
-    <cfRule type="duplicateValues" dxfId="150" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P43 M43:N43 H43">
-    <cfRule type="duplicateValues" dxfId="149" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P43 M43">
-    <cfRule type="duplicateValues" dxfId="148" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="duplicateValues" dxfId="147" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="146" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44">
-    <cfRule type="duplicateValues" dxfId="145" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="144" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45:J45 L45:M45">
-    <cfRule type="duplicateValues" dxfId="143" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M45 I45">
-    <cfRule type="duplicateValues" dxfId="142" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M46:N46 P46">
-    <cfRule type="duplicateValues" dxfId="141" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P46 M46:N46 H46">
-    <cfRule type="duplicateValues" dxfId="140" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P46">
-    <cfRule type="duplicateValues" dxfId="139" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M47:N47 P47 H47">
-    <cfRule type="duplicateValues" dxfId="138" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M47:N47">
-    <cfRule type="duplicateValues" dxfId="137" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M47 P47 H47">
-    <cfRule type="duplicateValues" dxfId="136" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48:I48">
-    <cfRule type="duplicateValues" dxfId="135" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="duplicateValues" dxfId="134" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P49 H49 M49:N49">
-    <cfRule type="duplicateValues" dxfId="133" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P50 M50:N50 H50">
-    <cfRule type="duplicateValues" dxfId="132" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P50">
-    <cfRule type="duplicateValues" dxfId="131" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M50:N50 P50 H50">
-    <cfRule type="duplicateValues" dxfId="130" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:J19 M19">
-    <cfRule type="duplicateValues" dxfId="129" priority="251"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="251"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M19">
-    <cfRule type="duplicateValues" dxfId="128" priority="253"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="253"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M19 I19">
-    <cfRule type="duplicateValues" dxfId="127" priority="254"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="254"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M19 I19:J19">
-    <cfRule type="duplicateValues" dxfId="126" priority="256"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="256"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M27 I27:J27">
-    <cfRule type="duplicateValues" dxfId="125" priority="308"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="308"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:J35 M35">
-    <cfRule type="duplicateValues" dxfId="124" priority="309"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="309"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8388,102 +8481,102 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1 L1:M1 O1">
-    <cfRule type="duplicateValues" dxfId="123" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1 L1:M1 O1">
-    <cfRule type="duplicateValues" dxfId="122" priority="42"/>
-    <cfRule type="duplicateValues" dxfId="121" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1 L1:M1 G1">
-    <cfRule type="duplicateValues" dxfId="120" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1">
-    <cfRule type="duplicateValues" dxfId="119" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2 L2:M2 O2">
-    <cfRule type="duplicateValues" dxfId="118" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2 L2:M2 O2">
-    <cfRule type="duplicateValues" dxfId="117" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="116" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2 L2:M2 G2">
-    <cfRule type="duplicateValues" dxfId="115" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2">
-    <cfRule type="duplicateValues" dxfId="114" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3 L3:M3 G3">
-    <cfRule type="duplicateValues" dxfId="113" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:M4 O4 G4">
-    <cfRule type="duplicateValues" dxfId="112" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4 L4:M4 G4">
-    <cfRule type="duplicateValues" dxfId="111" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="duplicateValues" dxfId="110" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4">
-    <cfRule type="duplicateValues" dxfId="109" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:M4">
-    <cfRule type="duplicateValues" dxfId="108" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6">
-    <cfRule type="duplicateValues" dxfId="107" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6 L6:M6 G6">
-    <cfRule type="duplicateValues" dxfId="106" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:M6 O6 G6">
-    <cfRule type="duplicateValues" dxfId="105" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:M6">
-    <cfRule type="duplicateValues" dxfId="104" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6">
-    <cfRule type="duplicateValues" dxfId="103" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:M6">
-    <cfRule type="duplicateValues" dxfId="102" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:M6 O6">
-    <cfRule type="duplicateValues" dxfId="101" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6">
-    <cfRule type="duplicateValues" dxfId="100" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="duplicateValues" dxfId="99" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6">
-    <cfRule type="duplicateValues" dxfId="98" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8 O8 L8:M8">
-    <cfRule type="duplicateValues" dxfId="97" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O8">
-    <cfRule type="duplicateValues" dxfId="96" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7 O7 L7:M7">
-    <cfRule type="duplicateValues" dxfId="95" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9:M9 O9">
-    <cfRule type="duplicateValues" dxfId="94" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9 L9:M9">
-    <cfRule type="duplicateValues" dxfId="93" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O10 L10:M10 G10">
-    <cfRule type="duplicateValues" dxfId="92" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O10 L10">
-    <cfRule type="duplicateValues" dxfId="91" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="90" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8491,10 +8584,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEE1F5E2-64AD-4285-A3D9-7B057892BEBA}">
-  <dimension ref="B3:P43"/>
+  <dimension ref="B3:P103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8505,8 +8598,8 @@
     <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.7109375" customWidth="1"/>
     <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="1.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="34" bestFit="1" customWidth="1"/>
@@ -9297,27 +9390,948 @@
         <v>171</v>
       </c>
     </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="P59" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>45</v>
+      </c>
+      <c r="D60" t="s">
+        <v>153</v>
+      </c>
+      <c r="H60" t="s">
+        <v>185</v>
+      </c>
+      <c r="I60" t="s">
+        <v>153</v>
+      </c>
+      <c r="J60" t="s">
+        <v>186</v>
+      </c>
+      <c r="K60" t="s">
+        <v>187</v>
+      </c>
+      <c r="L60" t="s">
+        <v>153</v>
+      </c>
+      <c r="M60" t="s">
+        <v>189</v>
+      </c>
+      <c r="N60" t="str">
+        <f>CONCATENATE(H60,I60,J60,K60,L60,M60)</f>
+        <v>$test_date            =       $_POST['test_date'];</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>184</v>
+      </c>
+      <c r="D61" t="s">
+        <v>161</v>
+      </c>
+      <c r="H61" t="s">
+        <v>185</v>
+      </c>
+      <c r="I61" t="s">
+        <v>161</v>
+      </c>
+      <c r="J61" t="s">
+        <v>186</v>
+      </c>
+      <c r="K61" t="s">
+        <v>187</v>
+      </c>
+      <c r="L61" t="s">
+        <v>161</v>
+      </c>
+      <c r="M61" t="s">
+        <v>189</v>
+      </c>
+      <c r="N61" t="str">
+        <f>CONCATENATE(H61,I61,J61,K61,L61,M61)</f>
+        <v>$test_by            =       $_POST['test_by'];</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>47</v>
+      </c>
+      <c r="D62" t="s">
+        <v>154</v>
+      </c>
+      <c r="H62" t="s">
+        <v>185</v>
+      </c>
+      <c r="I62" t="s">
+        <v>154</v>
+      </c>
+      <c r="J62" t="s">
+        <v>186</v>
+      </c>
+      <c r="K62" t="s">
+        <v>187</v>
+      </c>
+      <c r="L62" t="s">
+        <v>154</v>
+      </c>
+      <c r="M62" t="s">
+        <v>189</v>
+      </c>
+      <c r="N62" t="str">
+        <f>CONCATENATE(H62,I62,J62,K62,L62,M62)</f>
+        <v>$mach_type            =       $_POST['mach_type'];</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>48</v>
+      </c>
+      <c r="D63" t="s">
+        <v>155</v>
+      </c>
+      <c r="H63" t="s">
+        <v>185</v>
+      </c>
+      <c r="I63" t="s">
+        <v>155</v>
+      </c>
+      <c r="J63" t="s">
+        <v>186</v>
+      </c>
+      <c r="K63" t="s">
+        <v>187</v>
+      </c>
+      <c r="L63" t="s">
+        <v>155</v>
+      </c>
+      <c r="M63" t="s">
+        <v>189</v>
+      </c>
+      <c r="N63" t="str">
+        <f>CONCATENATE(H63,I63,J63,K63,L63,M63)</f>
+        <v>$mach_no            =       $_POST['mach_no'];</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>49</v>
+      </c>
+      <c r="D64" t="s">
+        <v>170</v>
+      </c>
+      <c r="H64" t="s">
+        <v>185</v>
+      </c>
+      <c r="I64" t="s">
+        <v>170</v>
+      </c>
+      <c r="J64" t="s">
+        <v>186</v>
+      </c>
+      <c r="K64" t="s">
+        <v>187</v>
+      </c>
+      <c r="L64" t="s">
+        <v>170</v>
+      </c>
+      <c r="M64" t="s">
+        <v>189</v>
+      </c>
+      <c r="N64" t="str">
+        <f>CONCATENATE(H64,I64,J64,K64,L64,M64)</f>
+        <v>$service_tag            =       $_POST['service_tag'];</v>
+      </c>
+    </row>
+    <row r="65" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>50</v>
+      </c>
+      <c r="D65" t="s">
+        <v>166</v>
+      </c>
+      <c r="H65" t="s">
+        <v>185</v>
+      </c>
+      <c r="I65" t="s">
+        <v>166</v>
+      </c>
+      <c r="J65" t="s">
+        <v>186</v>
+      </c>
+      <c r="K65" t="s">
+        <v>187</v>
+      </c>
+      <c r="L65" t="s">
+        <v>166</v>
+      </c>
+      <c r="M65" t="s">
+        <v>189</v>
+      </c>
+      <c r="N65" t="str">
+        <f>CONCATENATE(H65,I65,J65,K65,L65,M65)</f>
+        <v>$model            =       $_POST['model'];</v>
+      </c>
+    </row>
+    <row r="66" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>51</v>
+      </c>
+      <c r="D66" t="s">
+        <v>156</v>
+      </c>
+      <c r="H66" t="s">
+        <v>185</v>
+      </c>
+      <c r="I66" t="s">
+        <v>156</v>
+      </c>
+      <c r="J66" t="s">
+        <v>186</v>
+      </c>
+      <c r="K66" t="s">
+        <v>187</v>
+      </c>
+      <c r="L66" t="s">
+        <v>156</v>
+      </c>
+      <c r="M66" t="s">
+        <v>189</v>
+      </c>
+      <c r="N66" t="str">
+        <f>CONCATENATE(H66,I66,J66,K66,L66,M66)</f>
+        <v>$spar_type            =       $_POST['spar_type'];</v>
+      </c>
+    </row>
+    <row r="67" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" t="s">
+        <v>157</v>
+      </c>
+      <c r="H67" t="s">
+        <v>185</v>
+      </c>
+      <c r="I67" t="s">
+        <v>157</v>
+      </c>
+      <c r="J67" t="s">
+        <v>186</v>
+      </c>
+      <c r="K67" t="s">
+        <v>187</v>
+      </c>
+      <c r="L67" t="s">
+        <v>157</v>
+      </c>
+      <c r="M67" t="s">
+        <v>189</v>
+      </c>
+      <c r="N67" t="str">
+        <f>CONCATENATE(H67,I67,J67,K67,L67,M67)</f>
+        <v>$part_no            =       $_POST['part_no'];</v>
+      </c>
+    </row>
+    <row r="68" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="s">
+        <v>162</v>
+      </c>
+      <c r="H68" t="s">
+        <v>185</v>
+      </c>
+      <c r="I68" t="s">
+        <v>190</v>
+      </c>
+      <c r="J68" t="s">
+        <v>186</v>
+      </c>
+      <c r="K68" t="s">
+        <v>187</v>
+      </c>
+      <c r="L68" t="s">
+        <v>162</v>
+      </c>
+      <c r="M68" t="s">
+        <v>189</v>
+      </c>
+      <c r="N68" t="str">
+        <f>CONCATENATE(H68,I68,J68,K68,L68,M68)</f>
+        <v>$alt_part            =       $_POST['alt _part'];</v>
+      </c>
+    </row>
+    <row r="69" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" t="s">
+        <v>158</v>
+      </c>
+      <c r="H69" t="s">
+        <v>185</v>
+      </c>
+      <c r="I69" t="s">
+        <v>158</v>
+      </c>
+      <c r="J69" t="s">
+        <v>186</v>
+      </c>
+      <c r="K69" t="s">
+        <v>187</v>
+      </c>
+      <c r="L69" t="s">
+        <v>158</v>
+      </c>
+      <c r="M69" t="s">
+        <v>189</v>
+      </c>
+      <c r="N69" t="str">
+        <f>CONCATENATE(H69,I69,J69,K69,L69,M69)</f>
+        <v>$seri_no            =       $_POST['seri_no'];</v>
+      </c>
+    </row>
+    <row r="70" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" t="s">
+        <v>163</v>
+      </c>
+      <c r="H70" t="s">
+        <v>185</v>
+      </c>
+      <c r="I70" t="s">
+        <v>191</v>
+      </c>
+      <c r="J70" t="s">
+        <v>186</v>
+      </c>
+      <c r="K70" t="s">
+        <v>187</v>
+      </c>
+      <c r="L70" t="s">
+        <v>163</v>
+      </c>
+      <c r="M70" t="s">
+        <v>189</v>
+      </c>
+      <c r="N70" t="str">
+        <f>CONCATENATE(H70,I70,J70,K70,L70,M70)</f>
+        <v>$alt_serial            =       $_POST['alt _serial'];</v>
+      </c>
+    </row>
+    <row r="71" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" t="s">
+        <v>167</v>
+      </c>
+      <c r="H71" t="s">
+        <v>185</v>
+      </c>
+      <c r="I71" t="s">
+        <v>167</v>
+      </c>
+      <c r="J71" t="s">
+        <v>186</v>
+      </c>
+      <c r="K71" t="s">
+        <v>187</v>
+      </c>
+      <c r="L71" t="s">
+        <v>167</v>
+      </c>
+      <c r="M71" t="s">
+        <v>189</v>
+      </c>
+      <c r="N71" t="str">
+        <f>CONCATENATE(H71,I71,J71,K71,L71,M71)</f>
+        <v>$specs            =       $_POST['specs'];</v>
+      </c>
+    </row>
+    <row r="72" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72" t="s">
+        <v>159</v>
+      </c>
+      <c r="H72" t="s">
+        <v>185</v>
+      </c>
+      <c r="I72" t="s">
+        <v>159</v>
+      </c>
+      <c r="J72" t="s">
+        <v>186</v>
+      </c>
+      <c r="K72" t="s">
+        <v>187</v>
+      </c>
+      <c r="L72" t="s">
+        <v>159</v>
+      </c>
+      <c r="M72" t="s">
+        <v>189</v>
+      </c>
+      <c r="N72" t="str">
+        <f>CONCATENATE(H72,I72,J72,K72,L72,M72)</f>
+        <v>$barc_no            =       $_POST['barc_no'];</v>
+      </c>
+    </row>
+    <row r="73" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" t="s">
+        <v>168</v>
+      </c>
+      <c r="H73" t="s">
+        <v>185</v>
+      </c>
+      <c r="I73" t="s">
+        <v>168</v>
+      </c>
+      <c r="J73" t="s">
+        <v>186</v>
+      </c>
+      <c r="K73" t="s">
+        <v>187</v>
+      </c>
+      <c r="L73" t="s">
+        <v>168</v>
+      </c>
+      <c r="M73" t="s">
+        <v>189</v>
+      </c>
+      <c r="N73" t="str">
+        <f>CONCATENATE(H73,I73,J73,K73,L73,M73)</f>
+        <v>$qty            =       $_POST['qty'];</v>
+      </c>
+    </row>
+    <row r="74" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
+        <v>52</v>
+      </c>
+      <c r="D74" t="s">
+        <v>164</v>
+      </c>
+      <c r="H74" t="s">
+        <v>185</v>
+      </c>
+      <c r="I74" t="s">
+        <v>164</v>
+      </c>
+      <c r="J74" t="s">
+        <v>186</v>
+      </c>
+      <c r="K74" t="s">
+        <v>187</v>
+      </c>
+      <c r="L74" t="s">
+        <v>164</v>
+      </c>
+      <c r="M74" t="s">
+        <v>189</v>
+      </c>
+      <c r="N74" t="str">
+        <f>CONCATENATE(H74,I74,J74,K74,L74,M74)</f>
+        <v>$work_not            =       $_POST['work_not'];</v>
+      </c>
+    </row>
+    <row r="75" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" t="s">
+        <v>169</v>
+      </c>
+      <c r="H75" t="s">
+        <v>185</v>
+      </c>
+      <c r="I75" t="s">
+        <v>169</v>
+      </c>
+      <c r="J75" t="s">
+        <v>186</v>
+      </c>
+      <c r="K75" t="s">
+        <v>187</v>
+      </c>
+      <c r="L75" t="s">
+        <v>169</v>
+      </c>
+      <c r="M75" t="s">
+        <v>189</v>
+      </c>
+      <c r="N75" t="str">
+        <f>CONCATENATE(H75,I75,J75,K75,L75,M75)</f>
+        <v>$location            =       $_POST['location'];</v>
+      </c>
+    </row>
+    <row r="76" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" t="s">
+        <v>160</v>
+      </c>
+      <c r="H76" t="s">
+        <v>185</v>
+      </c>
+      <c r="I76" t="s">
+        <v>160</v>
+      </c>
+      <c r="J76" t="s">
+        <v>186</v>
+      </c>
+      <c r="K76" t="s">
+        <v>187</v>
+      </c>
+      <c r="L76" t="s">
+        <v>160</v>
+      </c>
+      <c r="M76" t="s">
+        <v>189</v>
+      </c>
+      <c r="N76" t="str">
+        <f>CONCATENATE(H76,I76,J76,K76,L76,M76)</f>
+        <v>$refe_location            =       $_POST['refe_location'];</v>
+      </c>
+    </row>
+    <row r="77" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>43</v>
+      </c>
+      <c r="D77" t="s">
+        <v>165</v>
+      </c>
+      <c r="H77" t="s">
+        <v>185</v>
+      </c>
+      <c r="I77" t="s">
+        <v>165</v>
+      </c>
+      <c r="J77" t="s">
+        <v>186</v>
+      </c>
+      <c r="K77" t="s">
+        <v>187</v>
+      </c>
+      <c r="L77" t="s">
+        <v>165</v>
+      </c>
+      <c r="M77" t="s">
+        <v>189</v>
+      </c>
+      <c r="N77" t="str">
+        <f>CONCATENATE(H77,I77,J77,K77,L77,M77)</f>
+        <v>$pare_child            =       $_POST['pare_child'];</v>
+      </c>
+    </row>
+    <row r="78" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78" t="s">
+        <v>171</v>
+      </c>
+      <c r="H78" t="s">
+        <v>185</v>
+      </c>
+      <c r="I78" t="s">
+        <v>171</v>
+      </c>
+      <c r="J78" t="s">
+        <v>186</v>
+      </c>
+      <c r="K78" t="s">
+        <v>187</v>
+      </c>
+      <c r="L78" t="s">
+        <v>171</v>
+      </c>
+      <c r="M78" t="s">
+        <v>189</v>
+      </c>
+      <c r="N78" t="str">
+        <f>CONCATENATE(H78,I78,J78,K78,L78,M78)</f>
+        <v>$remark            =       $_POST['remark'];</v>
+      </c>
+    </row>
+    <row r="84" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="J84" s="45"/>
+    </row>
+    <row r="85" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D85" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="E85" t="s">
+        <v>153</v>
+      </c>
+      <c r="F85" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="H85" t="str">
+        <f>CONCATENATE(D85,E85,F85,)</f>
+        <v>'$test_date',</v>
+      </c>
+      <c r="I85" s="45" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="86" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D86" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="E86" t="s">
+        <v>161</v>
+      </c>
+      <c r="F86" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="H86" t="str">
+        <f>CONCATENATE(D86,E86,F86,)</f>
+        <v>'$test_by',</v>
+      </c>
+      <c r="I86" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="87" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D87" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="E87" t="s">
+        <v>154</v>
+      </c>
+      <c r="F87" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="H87" t="str">
+        <f>CONCATENATE(D87,E87,F87,)</f>
+        <v>'$mach_type',</v>
+      </c>
+      <c r="I87" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="88" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D88" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="E88" t="s">
+        <v>155</v>
+      </c>
+      <c r="F88" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="H88" t="str">
+        <f>CONCATENATE(D88,E88,F88,)</f>
+        <v>'$mach_no',</v>
+      </c>
+      <c r="I88" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="89" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D89" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="E89" t="s">
+        <v>170</v>
+      </c>
+      <c r="F89" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="H89" t="str">
+        <f>CONCATENATE(D89,E89,F89,)</f>
+        <v>'$service_tag',</v>
+      </c>
+      <c r="I89" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="90" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D90" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="E90" t="s">
+        <v>166</v>
+      </c>
+      <c r="F90" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="H90" t="str">
+        <f>CONCATENATE(D90,E90,F90,)</f>
+        <v>'$model',</v>
+      </c>
+      <c r="I90" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="91" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D91" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="E91" t="s">
+        <v>156</v>
+      </c>
+      <c r="F91" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="H91" t="str">
+        <f>CONCATENATE(D91,E91,F91,)</f>
+        <v>'$spar_type',</v>
+      </c>
+      <c r="I91" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="92" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D92" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="E92" t="s">
+        <v>157</v>
+      </c>
+      <c r="F92" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="H92" t="str">
+        <f>CONCATENATE(D92,E92,F92,)</f>
+        <v>'$part_no',</v>
+      </c>
+      <c r="I92" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="93" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D93" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="E93" t="s">
+        <v>190</v>
+      </c>
+      <c r="F93" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="H93" t="str">
+        <f>CONCATENATE(D93,E93,F93,)</f>
+        <v>'$alt_part',</v>
+      </c>
+      <c r="I93" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="94" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D94" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="E94" t="s">
+        <v>158</v>
+      </c>
+      <c r="F94" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="H94" t="str">
+        <f>CONCATENATE(D94,E94,F94,)</f>
+        <v>'$seri_no',</v>
+      </c>
+      <c r="I94" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="95" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D95" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="E95" t="s">
+        <v>191</v>
+      </c>
+      <c r="F95" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="H95" t="str">
+        <f>CONCATENATE(D95,E95,F95,)</f>
+        <v>'$alt_serial',</v>
+      </c>
+      <c r="I95" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="96" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D96" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="E96" t="s">
+        <v>167</v>
+      </c>
+      <c r="F96" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="H96" t="str">
+        <f>CONCATENATE(D96,E96,F96,)</f>
+        <v>'$specs',</v>
+      </c>
+      <c r="I96" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="97" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D97" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="E97" t="s">
+        <v>159</v>
+      </c>
+      <c r="F97" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="H97" t="str">
+        <f>CONCATENATE(D97,E97,F97,)</f>
+        <v>'$barc_no',</v>
+      </c>
+      <c r="I97" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="98" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D98" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="E98" t="s">
+        <v>168</v>
+      </c>
+      <c r="F98" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="H98" t="str">
+        <f>CONCATENATE(D98,E98,F98,)</f>
+        <v>'$qty',</v>
+      </c>
+      <c r="I98" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="99" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D99" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="E99" t="s">
+        <v>164</v>
+      </c>
+      <c r="F99" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="H99" t="str">
+        <f>CONCATENATE(D99,E99,F99,)</f>
+        <v>'$work_not',</v>
+      </c>
+      <c r="I99" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="100" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D100" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="E100" t="s">
+        <v>169</v>
+      </c>
+      <c r="F100" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="H100" t="str">
+        <f>CONCATENATE(D100,E100,F100,)</f>
+        <v>'$location',</v>
+      </c>
+      <c r="I100" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="101" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D101" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="E101" t="s">
+        <v>160</v>
+      </c>
+      <c r="F101" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="H101" t="str">
+        <f>CONCATENATE(D101,E101,F101,)</f>
+        <v>'$refe_location',</v>
+      </c>
+      <c r="I101" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="102" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D102" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="E102" t="s">
+        <v>165</v>
+      </c>
+      <c r="F102" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="H102" t="str">
+        <f>CONCATENATE(D102,E102,F102,)</f>
+        <v>'$pare_child',</v>
+      </c>
+      <c r="I102" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="103" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D103" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="E103" t="s">
+        <v>171</v>
+      </c>
+      <c r="F103" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="H103" t="str">
+        <f>CONCATENATE(D103,E103,F103,)</f>
+        <v>'$remark',</v>
+      </c>
+      <c r="I103" t="s">
+        <v>211</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="C9 C14:C15 C17">
-    <cfRule type="duplicateValues" dxfId="89" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9 C14:C15 C17">
-    <cfRule type="duplicateValues" dxfId="88" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="87" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17 C14:C15 C9">
-    <cfRule type="duplicateValues" dxfId="86" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="duplicateValues" dxfId="85" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="duplicateValues" dxfId="84" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26 C28:C35">
-    <cfRule type="duplicateValues" dxfId="83" priority="310"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="310"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10572,190 +11586,190 @@
     <row r="44" spans="1:15" s="30" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="L30 H30">
-    <cfRule type="duplicateValues" dxfId="82" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31:I31 L31">
-    <cfRule type="duplicateValues" dxfId="81" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21 H21:I21">
-    <cfRule type="duplicateValues" dxfId="80" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21">
-    <cfRule type="duplicateValues" dxfId="79" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:I22 L22">
-    <cfRule type="duplicateValues" dxfId="78" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22">
-    <cfRule type="duplicateValues" dxfId="77" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22 H22">
-    <cfRule type="duplicateValues" dxfId="76" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22 H22:I22">
-    <cfRule type="duplicateValues" dxfId="75" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23:I23 L23">
-    <cfRule type="duplicateValues" dxfId="74" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23 L23">
-    <cfRule type="duplicateValues" dxfId="73" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24:I24 L24">
-    <cfRule type="duplicateValues" dxfId="72" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24 L24">
-    <cfRule type="duplicateValues" dxfId="71" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L26 H26:I26">
-    <cfRule type="duplicateValues" dxfId="70" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="duplicateValues" dxfId="69" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L26 H26">
-    <cfRule type="duplicateValues" dxfId="68" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L26">
-    <cfRule type="duplicateValues" dxfId="67" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26 L26">
-    <cfRule type="duplicateValues" dxfId="66" priority="47"/>
-    <cfRule type="duplicateValues" dxfId="65" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26 L26">
-    <cfRule type="duplicateValues" dxfId="64" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27 H27:I27">
-    <cfRule type="duplicateValues" dxfId="63" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27">
-    <cfRule type="duplicateValues" dxfId="62" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="duplicateValues" dxfId="61" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27 H27">
-    <cfRule type="duplicateValues" dxfId="60" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27:I27 L27">
-    <cfRule type="duplicateValues" dxfId="59" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28:I28 L28">
-    <cfRule type="duplicateValues" dxfId="58" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28:I28">
-    <cfRule type="duplicateValues" dxfId="57" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29:I29 L29">
-    <cfRule type="duplicateValues" dxfId="56" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30:I30 L30">
-    <cfRule type="duplicateValues" dxfId="55" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30 L30">
-    <cfRule type="duplicateValues" dxfId="54" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L30">
-    <cfRule type="duplicateValues" dxfId="53" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="duplicateValues" dxfId="52" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31:I31">
-    <cfRule type="duplicateValues" dxfId="51" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31 L31">
-    <cfRule type="duplicateValues" dxfId="50" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L31 H31">
-    <cfRule type="duplicateValues" dxfId="49" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32:I32 L32">
-    <cfRule type="duplicateValues" dxfId="48" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L32 H32:I32">
-    <cfRule type="duplicateValues" dxfId="47" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L32 H32">
-    <cfRule type="duplicateValues" dxfId="46" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32 L32">
-    <cfRule type="duplicateValues" dxfId="45" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32:I32">
-    <cfRule type="duplicateValues" dxfId="44" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L34 H34:I34">
-    <cfRule type="duplicateValues" dxfId="43" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L34">
-    <cfRule type="duplicateValues" dxfId="42" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34:I34">
-    <cfRule type="duplicateValues" dxfId="41" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L34 H34">
-    <cfRule type="duplicateValues" dxfId="40" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34 L34">
-    <cfRule type="duplicateValues" dxfId="39" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="duplicateValues" dxfId="38" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L25 H25:I25">
-    <cfRule type="duplicateValues" dxfId="37" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33:I33 L33">
-    <cfRule type="duplicateValues" dxfId="36" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35:I35">
-    <cfRule type="duplicateValues" dxfId="35" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L35 H35:I35">
-    <cfRule type="duplicateValues" dxfId="34" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="duplicateValues" dxfId="33" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L35">
-    <cfRule type="duplicateValues" dxfId="32" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L36 H36:I36">
-    <cfRule type="duplicateValues" dxfId="31" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37:K37">
-    <cfRule type="duplicateValues" dxfId="30" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M37">
-    <cfRule type="duplicateValues" dxfId="29" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37:K37 M37">
-    <cfRule type="duplicateValues" dxfId="28" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38">
-    <cfRule type="duplicateValues" dxfId="27" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="duplicateValues" dxfId="25" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:I39 K39:L39">
-    <cfRule type="duplicateValues" dxfId="23" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L39 H39">
-    <cfRule type="duplicateValues" dxfId="22" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19:I19 K19:L19">
-    <cfRule type="duplicateValues" dxfId="21" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L19 H19">
-    <cfRule type="duplicateValues" dxfId="20" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A19">
-    <cfRule type="duplicateValues" dxfId="19" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11463,57 +12477,57 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="M7">
-    <cfRule type="duplicateValues" dxfId="18" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7">
-    <cfRule type="duplicateValues" dxfId="16" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9 L9">
-    <cfRule type="duplicateValues" dxfId="15" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9">
-    <cfRule type="duplicateValues" dxfId="14" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9 N9">
-    <cfRule type="duplicateValues" dxfId="13" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9 N9">
-    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9">
-    <cfRule type="duplicateValues" dxfId="10" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11 J11">
-    <cfRule type="duplicateValues" dxfId="9" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="duplicateValues" dxfId="8" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="duplicateValues" dxfId="7" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11 L11">
-    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:I13">
-    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15 I15">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15 I15:J15">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:I17">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
